--- a/Data/Config - Prod (1).xlsx
+++ b/Data/Config - Prod (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0CA8AE-496F-4AA9-B819-C27D276C5483}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8978AB09-DC1D-4651-90BB-71AC402DFD0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -933,7 +933,7 @@
         <v>52</v>
       </c>
       <c r="B19" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>86</v>
@@ -1028,7 +1028,7 @@
         <v>85</v>
       </c>
       <c r="B30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>83</v>

--- a/Data/Config - Prod (1).xlsx
+++ b/Data/Config - Prod (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8978AB09-DC1D-4651-90BB-71AC402DFD0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6ACF98-3489-43AD-8D64-E28AA47C3A66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     <t>\\srvfildub01\CustomerService\CustomerService2013\VSD\Refunds\Refund Files\Nike\{year}</t>
   </si>
   <si>
-    <t>\\srvfildub01\Fraud\Bot_Test\eCommerce Refund Report.xlsx</t>
+    <t>\\srvfildub01\Fraud\Daily Operations\eCommerce Refund Report.xlsx</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
